--- a/assetsexceltest.xlsx
+++ b/assetsexceltest.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA0DA19-7E1D-406A-8FDC-2BA8E5A13D39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>kegiatanPrioritas</t>
   </si>
@@ -31,9 +32,6 @@
     <t>DAUT</t>
   </si>
   <si>
-    <t>alokasiDanaKelurahan</t>
-  </si>
-  <si>
     <t>pelaksana</t>
   </si>
   <si>
@@ -55,15 +53,9 @@
     <t>saya</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>lunas</t>
   </si>
   <si>
-    <t>apbd</t>
-  </si>
-  <si>
     <t>tidur</t>
   </si>
   <si>
@@ -73,20 +65,43 @@
     <t>mereka</t>
   </si>
   <si>
-    <t>daut</t>
+    <t>jumlahAnggaran</t>
+  </si>
+  <si>
+    <t>APBDKEL</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>Jalan</t>
+  </si>
+  <si>
+    <t>Osamaliki</t>
+  </si>
+  <si>
+    <t>tahun</t>
+  </si>
+  <si>
+    <t>jenis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,8 +124,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -204,6 +222,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -239,6 +274,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -414,21 +466,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -442,86 +494,113 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>123456</v>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>2021</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="D3">
         <v>135790</v>
       </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
       <c r="F3">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>50000</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>